--- a/Applied_Optimization_Models/Lab_Lichuha/KursWork/KursWork2.xlsx
+++ b/Applied_Optimization_Models/Lab_Lichuha/KursWork/KursWork2.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\SUAI_5sem\Applied_Optimization_Models\Lab_Lichuha\KursWork\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\belov\Desktop\SUAI_5sem\Applied_Optimization_Models\Lab_Lichuha\KursWork\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C87696B-5D16-4542-BA60-1C97F4454D6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9660" yWindow="2616" windowWidth="12972" windowHeight="9420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9660" yWindow="2610" windowWidth="12975" windowHeight="9420" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
     <definedName name="solver_adj" localSheetId="1" hidden="1">Лист2!$E$5:$G$17</definedName>
     <definedName name="solver_cvg" localSheetId="1" hidden="1">0.0001</definedName>
     <definedName name="solver_drv" localSheetId="1" hidden="1">2</definedName>
-    <definedName name="solver_eng" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_eng" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_est" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_itr" localSheetId="1" hidden="1">2147483647</definedName>
     <definedName name="solver_lhs1" localSheetId="1" hidden="1">Лист2!$E$5:$G$17</definedName>
@@ -53,10 +52,10 @@
     <definedName name="solver_nod" localSheetId="1" hidden="1">2147483647</definedName>
     <definedName name="solver_num" localSheetId="1" hidden="1">21</definedName>
     <definedName name="solver_nwt" localSheetId="1" hidden="1">1</definedName>
-    <definedName name="solver_opt" localSheetId="1" hidden="1">Лист2!$X$7</definedName>
+    <definedName name="solver_opt" localSheetId="1" hidden="1">Лист2!$E$25</definedName>
     <definedName name="solver_pre" localSheetId="1" hidden="1">0.0000001</definedName>
     <definedName name="solver_rbv" localSheetId="1" hidden="1">2</definedName>
-    <definedName name="solver_rel1" localSheetId="1" hidden="1">5</definedName>
+    <definedName name="solver_rel1" localSheetId="1" hidden="1">4</definedName>
     <definedName name="solver_rel10" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_rel11" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_rel12" localSheetId="1" hidden="1">2</definedName>
@@ -78,7 +77,7 @@
     <definedName name="solver_rel7" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_rel8" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_rel9" localSheetId="1" hidden="1">2</definedName>
-    <definedName name="solver_rhs1" localSheetId="1" hidden="1">"бинарное"</definedName>
+    <definedName name="solver_rhs1" localSheetId="1" hidden="1">целое</definedName>
     <definedName name="solver_rhs10" localSheetId="1" hidden="1">Лист2!$J$5</definedName>
     <definedName name="solver_rhs11" localSheetId="1" hidden="1">Лист2!$J$6</definedName>
     <definedName name="solver_rhs12" localSheetId="1" hidden="1">Лист2!$J$7</definedName>
@@ -111,7 +110,7 @@
     <definedName name="solver_val" localSheetId="1" hidden="1">0.5</definedName>
     <definedName name="solver_ver" localSheetId="1" hidden="1">3</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -339,9 +338,6 @@
     <t>Ограничение:</t>
   </si>
   <si>
-    <t>Среднеквадратичное отклонение</t>
-  </si>
-  <si>
     <t>Разница</t>
   </si>
   <si>
@@ -349,12 +345,15 @@
   </si>
   <si>
     <t>Егор</t>
+  </si>
+  <si>
+    <t>Сумма разниц по модулю</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -520,7 +519,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -616,9 +615,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -899,21 +895,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="8.33203125" customWidth="1"/>
-    <col min="7" max="7" width="11.6640625" customWidth="1"/>
-    <col min="8" max="8" width="11.44140625" customWidth="1"/>
+    <col min="3" max="3" width="8.28515625" customWidth="1"/>
+    <col min="7" max="7" width="11.7109375" customWidth="1"/>
+    <col min="8" max="8" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -933,7 +929,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>4</v>
       </c>
@@ -953,7 +949,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>5</v>
       </c>
@@ -964,7 +960,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>6</v>
       </c>
@@ -975,7 +971,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>7</v>
       </c>
@@ -983,12 +979,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="F6">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -996,7 +992,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -1004,7 +1000,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -1048,7 +1044,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>44494</v>
       </c>
@@ -1092,7 +1088,7 @@
         <v>44507</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>3</v>
       </c>
@@ -1130,7 +1126,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D17" t="s">
         <v>23</v>
       </c>
@@ -1144,7 +1140,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D18" t="s">
         <v>24</v>
       </c>
@@ -1155,33 +1151,33 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:Y35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="X7" sqref="X7:Y7"/>
+      <selection activeCell="Q22" sqref="Q22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
-    <col min="2" max="2" width="14.6640625" customWidth="1"/>
-    <col min="3" max="3" width="14.5546875" customWidth="1"/>
-    <col min="4" max="4" width="15.109375" customWidth="1"/>
-    <col min="5" max="5" width="11.33203125" customWidth="1"/>
-    <col min="6" max="6" width="12.5546875" customWidth="1"/>
-    <col min="7" max="7" width="11.33203125" customWidth="1"/>
-    <col min="8" max="8" width="13.33203125" customWidth="1"/>
-    <col min="9" max="9" width="10.6640625" customWidth="1"/>
-    <col min="10" max="10" width="10.5546875" customWidth="1"/>
-    <col min="11" max="11" width="11.6640625" customWidth="1"/>
-    <col min="12" max="12" width="19.44140625" customWidth="1"/>
-    <col min="13" max="13" width="11.88671875" customWidth="1"/>
-    <col min="14" max="14" width="11.5546875" customWidth="1"/>
-    <col min="15" max="15" width="12.5546875" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" customWidth="1"/>
+    <col min="3" max="3" width="14.5703125" customWidth="1"/>
+    <col min="4" max="4" width="15.140625" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" customWidth="1"/>
+    <col min="6" max="6" width="12.5703125" customWidth="1"/>
+    <col min="7" max="7" width="11.28515625" customWidth="1"/>
+    <col min="8" max="8" width="13.28515625" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" customWidth="1"/>
+    <col min="10" max="10" width="10.5703125" customWidth="1"/>
+    <col min="11" max="11" width="11.7109375" customWidth="1"/>
+    <col min="12" max="12" width="19.42578125" customWidth="1"/>
+    <col min="13" max="13" width="11.85546875" customWidth="1"/>
+    <col min="14" max="14" width="11.5703125" customWidth="1"/>
+    <col min="15" max="15" width="12.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:25" ht="18" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:25" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B2" s="19" t="s">
         <v>51</v>
       </c>
@@ -1210,7 +1206,7 @@
       <c r="X2" s="19"/>
       <c r="Y2" s="19"/>
     </row>
-    <row r="3" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B3" s="29" t="s">
         <v>56</v>
       </c>
@@ -1255,7 +1251,7 @@
       </c>
       <c r="Y3" s="20"/>
     </row>
-    <row r="4" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B4" s="30"/>
       <c r="C4" s="30"/>
       <c r="D4" s="30"/>
@@ -1309,7 +1305,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B5" s="31" t="s">
         <v>62</v>
       </c>
@@ -1343,7 +1339,7 @@
       </c>
       <c r="M5" s="4">
         <f>SUM(E5:E9)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N5" s="4">
         <f>SUM(F5:F9)</f>
@@ -1351,7 +1347,7 @@
       </c>
       <c r="O5" s="4">
         <f>SUM(G5:G9)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P5" s="3" t="s">
         <v>48</v>
@@ -1360,7 +1356,7 @@
         <v>2</v>
       </c>
       <c r="S5" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="T5" s="2">
         <f>COUNTIFS(D5:D17,"м",E5:E17,1)</f>
@@ -1368,26 +1364,26 @@
       </c>
       <c r="U5" s="2">
         <f>COUNTIFS(D5:D17,"ж",E5:E17,1)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V5" s="2">
         <f>COUNTIFS(D5:D17,"м",F5:F17,1)</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="W5" s="2">
         <f>COUNTIFS(D5:D17,"ж",F5:F17,1)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X5" s="2">
         <f>COUNTIFS(D5:D17,"м",G5:G17,1)</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Y5" s="2">
         <f>COUNTIFS(D5:D17,"ж",G5:G17,1)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="2:25" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B6" s="31"/>
       <c r="C6" s="4" t="s">
         <v>32</v>
@@ -1419,15 +1415,15 @@
       </c>
       <c r="M6" s="5">
         <f>SUM(E10:E13)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N6" s="5">
         <f>SUM(F10:F13)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O6" s="5">
         <f>SUM(G10:G13)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P6" s="3" t="s">
         <v>48</v>
@@ -1436,25 +1432,25 @@
         <v>2</v>
       </c>
       <c r="S6" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="T6" s="20">
         <f>ABS(T5-U5)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U6" s="20"/>
       <c r="V6" s="20">
         <f>ABS(V5-W5)</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="W6" s="20"/>
       <c r="X6" s="20">
         <f>ABS(X5-Y5)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y6" s="20"/>
     </row>
-    <row r="7" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B7" s="31"/>
       <c r="C7" s="4" t="s">
         <v>33</v>
@@ -1503,19 +1499,19 @@
         <v>1</v>
       </c>
       <c r="S7" s="20" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="T7" s="20"/>
       <c r="U7" s="20"/>
       <c r="V7" s="20"/>
       <c r="W7" s="20"/>
       <c r="X7" s="20">
-        <f>_xlfn.STDEV.S(T6:Y6)</f>
-        <v>1</v>
+        <f>SUM(T6:Y6)</f>
+        <v>7</v>
       </c>
       <c r="Y7" s="20"/>
     </row>
-    <row r="8" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B8" s="31"/>
       <c r="C8" s="4" t="s">
         <v>34</v>
@@ -1524,13 +1520,13 @@
         <v>44</v>
       </c>
       <c r="E8" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8" s="4">
         <v>0</v>
       </c>
       <c r="G8" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H8" s="13">
         <f t="shared" si="0"/>
@@ -1551,30 +1547,27 @@
       </c>
       <c r="N8" s="7">
         <f>SUM(F16:F17)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O8" s="7">
         <f>SUM(G16:G17)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P8" s="3" t="s">
         <v>48</v>
       </c>
       <c r="Q8" s="3">
-        <v>1</v>
-      </c>
-      <c r="S8" s="38"/>
-      <c r="T8" s="38"/>
-      <c r="U8" s="38"/>
-      <c r="V8" s="38"/>
-      <c r="W8" s="38"/>
-      <c r="X8" s="38">
-        <f>SUM(T6:Y6)/COUNT(T6:Y6)</f>
-        <v>1</v>
-      </c>
-      <c r="Y8" s="38"/>
-    </row>
-    <row r="9" spans="2:25" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+      <c r="S8" s="10"/>
+      <c r="T8" s="10"/>
+      <c r="U8" s="10"/>
+      <c r="V8" s="10"/>
+      <c r="W8" s="10"/>
+      <c r="X8" s="10"/>
+      <c r="Y8" s="10"/>
+    </row>
+    <row r="9" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B9" s="31"/>
       <c r="C9" s="4" t="s">
         <v>35</v>
@@ -1606,20 +1599,20 @@
       </c>
       <c r="M9" s="2">
         <f>SUM(M5:M8)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N9" s="2">
         <f t="shared" ref="N9:O9" si="1">SUM(N5:N8)</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="O9" s="2">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="P9" s="3"/>
       <c r="Q9" s="3"/>
     </row>
-    <row r="10" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B10" s="32" t="s">
         <v>63</v>
       </c>
@@ -1630,10 +1623,10 @@
         <v>43</v>
       </c>
       <c r="E10" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G10" s="5">
         <v>0</v>
@@ -1663,7 +1656,7 @@
       <c r="P10" s="3"/>
       <c r="Q10" s="3"/>
     </row>
-    <row r="11" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B11" s="32"/>
       <c r="C11" s="5" t="s">
         <v>37</v>
@@ -1675,10 +1668,10 @@
         <v>0</v>
       </c>
       <c r="F11" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G11" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H11" s="14">
         <f t="shared" si="0"/>
@@ -1703,7 +1696,7 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
     </row>
-    <row r="12" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B12" s="32"/>
       <c r="C12" s="5" t="s">
         <v>38</v>
@@ -1712,13 +1705,13 @@
         <v>43</v>
       </c>
       <c r="E12" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F12" s="5">
         <v>0</v>
       </c>
       <c r="G12" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H12" s="14">
         <f t="shared" si="0"/>
@@ -1731,7 +1724,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B13" s="32"/>
       <c r="C13" s="5" t="s">
         <v>39</v>
@@ -1740,10 +1733,10 @@
         <v>44</v>
       </c>
       <c r="E13" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F13" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G13" s="5">
         <v>0</v>
@@ -1759,7 +1752,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B14" s="21" t="s">
         <v>64</v>
       </c>
@@ -1789,7 +1782,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B15" s="21"/>
       <c r="C15" s="6" t="s">
         <v>41</v>
@@ -1817,7 +1810,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B16" s="22" t="s">
         <v>65</v>
       </c>
@@ -1831,10 +1824,10 @@
         <v>0</v>
       </c>
       <c r="F16" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G16" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H16" s="16">
         <f t="shared" si="0"/>
@@ -1847,10 +1840,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B17" s="22"/>
       <c r="C17" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D17" s="7" t="s">
         <v>43</v>
@@ -1875,7 +1868,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B18" s="8"/>
       <c r="C18" s="8"/>
       <c r="D18" s="8"/>
@@ -1885,7 +1878,7 @@
       <c r="H18" s="8"/>
       <c r="I18" s="8"/>
     </row>
-    <row r="22" spans="1:12" ht="18" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B22" s="19" t="s">
         <v>52</v>
       </c>
@@ -1893,7 +1886,7 @@
       <c r="D22" s="19"/>
       <c r="E22" s="19"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B23" s="2" t="s">
         <v>59</v>
       </c>
@@ -1907,7 +1900,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B24" s="2" t="s">
         <v>66</v>
       </c>
@@ -1921,7 +1914,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B25" s="20" t="s">
         <v>53</v>
       </c>
@@ -1929,15 +1922,15 @@
       <c r="D25" s="20"/>
       <c r="E25" s="2">
         <f>M9*C24+N9*D24+O9*E24</f>
-        <v>940</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J27" s="8"/>
       <c r="K27" s="8"/>
       <c r="L27" s="8"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="8"/>
       <c r="B28" s="8"/>
       <c r="C28" s="8"/>
@@ -1951,7 +1944,7 @@
       <c r="K28" s="8"/>
       <c r="L28" s="8"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="8"/>
       <c r="B29" s="9"/>
       <c r="C29" s="9"/>
@@ -1965,7 +1958,7 @@
       <c r="K29" s="8"/>
       <c r="L29" s="8"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="8"/>
       <c r="B30" s="8"/>
       <c r="C30" s="8"/>
@@ -1979,7 +1972,7 @@
       <c r="K30" s="8"/>
       <c r="L30" s="8"/>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="8"/>
       <c r="B31" s="8"/>
       <c r="C31" s="8"/>
@@ -1993,7 +1986,7 @@
       <c r="K31" s="8"/>
       <c r="L31" s="8"/>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="8"/>
       <c r="B32" s="8"/>
       <c r="C32" s="8"/>
@@ -2007,7 +2000,7 @@
       <c r="K32" s="8"/>
       <c r="L32" s="8"/>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="8"/>
       <c r="B33" s="10"/>
       <c r="C33" s="10"/>
@@ -2021,7 +2014,7 @@
       <c r="K33" s="8"/>
       <c r="L33" s="8"/>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="8"/>
       <c r="B34" s="8"/>
       <c r="C34" s="8"/>
@@ -2035,7 +2028,7 @@
       <c r="K34" s="8"/>
       <c r="L34" s="8"/>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="8"/>
       <c r="B35" s="8"/>
       <c r="C35" s="8"/>
@@ -2050,7 +2043,7 @@
       <c r="L35" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="29">
+  <mergeCells count="27">
     <mergeCell ref="P4:Q4"/>
     <mergeCell ref="L10:L11"/>
     <mergeCell ref="I4:J4"/>
@@ -2063,8 +2056,6 @@
     <mergeCell ref="T6:U6"/>
     <mergeCell ref="V6:W6"/>
     <mergeCell ref="X6:Y6"/>
-    <mergeCell ref="S8:W8"/>
-    <mergeCell ref="X8:Y8"/>
     <mergeCell ref="B22:E22"/>
     <mergeCell ref="B25:D25"/>
     <mergeCell ref="B14:B15"/>
